--- a/data/pca/factorExposure/factorExposure_2015-08-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02529206715867557</v>
+        <v>-0.0187913507071234</v>
       </c>
       <c r="C2">
-        <v>0.03294898654201201</v>
+        <v>-0.04647814541796336</v>
       </c>
       <c r="D2">
-        <v>0.1308832189770388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1408861932877861</v>
+      </c>
+      <c r="E2">
+        <v>0.006521287036419981</v>
+      </c>
+      <c r="F2">
+        <v>-0.001723493940184039</v>
+      </c>
+      <c r="G2">
+        <v>0.1115223640801472</v>
+      </c>
+      <c r="H2">
+        <v>-0.003916777462373046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01121153030799782</v>
+        <v>0.01485964473451216</v>
       </c>
       <c r="C3">
-        <v>0.05423798464427587</v>
+        <v>-0.03619910925824334</v>
       </c>
       <c r="D3">
-        <v>0.06908069485305347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.04897273010313336</v>
+      </c>
+      <c r="E3">
+        <v>0.0501915895688604</v>
+      </c>
+      <c r="F3">
+        <v>-0.01685437757977971</v>
+      </c>
+      <c r="G3">
+        <v>0.1257374349864166</v>
+      </c>
+      <c r="H3">
+        <v>-0.008167255820347217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04551485972747443</v>
+        <v>-0.03502062532389021</v>
       </c>
       <c r="C4">
-        <v>0.07070568154224045</v>
+        <v>-0.08774205017951103</v>
       </c>
       <c r="D4">
-        <v>0.1401164198437998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1534331163145503</v>
+      </c>
+      <c r="E4">
+        <v>0.02422954469222963</v>
+      </c>
+      <c r="F4">
+        <v>-0.074375989446816</v>
+      </c>
+      <c r="G4">
+        <v>-0.01457687992351721</v>
+      </c>
+      <c r="H4">
+        <v>-0.03863251440011207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02916938615328298</v>
+        <v>-0.02752004431478594</v>
       </c>
       <c r="C6">
-        <v>0.02373538859735384</v>
+        <v>-0.03462147206006428</v>
       </c>
       <c r="D6">
-        <v>0.1608869715381531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1395776809966155</v>
+      </c>
+      <c r="E6">
+        <v>-0.02586790593236073</v>
+      </c>
+      <c r="F6">
+        <v>-0.06057809435902235</v>
+      </c>
+      <c r="G6">
+        <v>0.05486749533027265</v>
+      </c>
+      <c r="H6">
+        <v>-0.008008881676095831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01512527652112215</v>
+        <v>-0.01017213393541874</v>
       </c>
       <c r="C7">
-        <v>0.0312975126208709</v>
+        <v>-0.03808655669242725</v>
       </c>
       <c r="D7">
-        <v>0.120005142469391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09912595617916929</v>
+      </c>
+      <c r="E7">
+        <v>-0.03494581460903946</v>
+      </c>
+      <c r="F7">
+        <v>-0.01959388670492215</v>
+      </c>
+      <c r="G7">
+        <v>0.06068029941189351</v>
+      </c>
+      <c r="H7">
+        <v>-0.03937385378451504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.007283095754623766</v>
+        <v>-2.944779907549889e-05</v>
       </c>
       <c r="C8">
-        <v>0.03510097568173007</v>
+        <v>-0.03981219176599823</v>
       </c>
       <c r="D8">
-        <v>0.08177201481911039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08106014591239219</v>
+      </c>
+      <c r="E8">
+        <v>-0.007338590883311015</v>
+      </c>
+      <c r="F8">
+        <v>-0.05125536299813907</v>
+      </c>
+      <c r="G8">
+        <v>0.07512155726736265</v>
+      </c>
+      <c r="H8">
+        <v>0.04066141920566949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03553175973500635</v>
+        <v>-0.02579258779025324</v>
       </c>
       <c r="C9">
-        <v>0.06299090277073788</v>
+        <v>-0.07573952526979712</v>
       </c>
       <c r="D9">
-        <v>0.1281511442843689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1273940055001141</v>
+      </c>
+      <c r="E9">
+        <v>0.01414243454676458</v>
+      </c>
+      <c r="F9">
+        <v>-0.04551566908594532</v>
+      </c>
+      <c r="G9">
+        <v>-0.01066845769606854</v>
+      </c>
+      <c r="H9">
+        <v>-0.0389137752464778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.143944593263157</v>
+        <v>-0.1982369813685568</v>
       </c>
       <c r="C10">
-        <v>-0.1794847822493409</v>
+        <v>0.1475168889084541</v>
       </c>
       <c r="D10">
-        <v>0.008812298912971321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01331422927919382</v>
+      </c>
+      <c r="E10">
+        <v>0.02931067507570794</v>
+      </c>
+      <c r="F10">
+        <v>-0.04473012513058401</v>
+      </c>
+      <c r="G10">
+        <v>-0.02340856169611756</v>
+      </c>
+      <c r="H10">
+        <v>0.05696826321382217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03008065583963285</v>
+        <v>-0.02107789946100471</v>
       </c>
       <c r="C11">
-        <v>0.04421458039428242</v>
+        <v>-0.05331740096690351</v>
       </c>
       <c r="D11">
-        <v>0.056468088437576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0498567365428592</v>
+      </c>
+      <c r="E11">
+        <v>-0.0207405994324728</v>
+      </c>
+      <c r="F11">
+        <v>0.01284012199578951</v>
+      </c>
+      <c r="G11">
+        <v>0.02599216700439684</v>
+      </c>
+      <c r="H11">
+        <v>-0.03617308537342086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03525928332483137</v>
+        <v>-0.02363954450898803</v>
       </c>
       <c r="C12">
-        <v>0.04790892376359484</v>
+        <v>-0.05585014639968563</v>
       </c>
       <c r="D12">
-        <v>0.07223443361470702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05332989755784857</v>
+      </c>
+      <c r="E12">
+        <v>-0.01810867600987854</v>
+      </c>
+      <c r="F12">
+        <v>0.01914702785581181</v>
+      </c>
+      <c r="G12">
+        <v>0.0292497086861514</v>
+      </c>
+      <c r="H12">
+        <v>-0.06607057705192031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008355990397920121</v>
+        <v>-0.007901113742716443</v>
       </c>
       <c r="C13">
-        <v>0.03808154752115669</v>
+        <v>-0.04878734679664083</v>
       </c>
       <c r="D13">
-        <v>0.1610147301828089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1640797156392899</v>
+      </c>
+      <c r="E13">
+        <v>-0.03311772778937777</v>
+      </c>
+      <c r="F13">
+        <v>-0.04563117447013763</v>
+      </c>
+      <c r="G13">
+        <v>0.06493485503468421</v>
+      </c>
+      <c r="H13">
+        <v>-0.02799475133259338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.001154215364064683</v>
+        <v>-0.001824344616351343</v>
       </c>
       <c r="C14">
-        <v>0.0262164205219691</v>
+        <v>-0.02945642601144588</v>
       </c>
       <c r="D14">
-        <v>0.1120504561383058</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1073920244726494</v>
+      </c>
+      <c r="E14">
+        <v>-0.01466280748451654</v>
+      </c>
+      <c r="F14">
+        <v>-0.02005906603088737</v>
+      </c>
+      <c r="G14">
+        <v>0.08064014681626676</v>
+      </c>
+      <c r="H14">
+        <v>-0.06754312173327666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003272039031543232</v>
+        <v>-0.0001204459796490719</v>
       </c>
       <c r="C15">
-        <v>0.005916385356324689</v>
+        <v>-0.01550686046972874</v>
       </c>
       <c r="D15">
-        <v>0.01304506294787127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04319539954132996</v>
+      </c>
+      <c r="E15">
+        <v>-0.002385775477318687</v>
+      </c>
+      <c r="F15">
+        <v>-0.002335788660570132</v>
+      </c>
+      <c r="G15">
+        <v>0.01826079626202287</v>
+      </c>
+      <c r="H15">
+        <v>-0.0005385295429035493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0259357147703265</v>
+        <v>-0.01861835625571313</v>
       </c>
       <c r="C16">
-        <v>0.04529278672219924</v>
+        <v>-0.05115345346653775</v>
       </c>
       <c r="D16">
-        <v>0.07310801804925632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05858250707067041</v>
+      </c>
+      <c r="E16">
+        <v>-0.01324451591790697</v>
+      </c>
+      <c r="F16">
+        <v>0.0002834490983244579</v>
+      </c>
+      <c r="G16">
+        <v>0.03777300969513402</v>
+      </c>
+      <c r="H16">
+        <v>-0.05546825504592412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008502074137045554</v>
+        <v>-0.003118586230311302</v>
       </c>
       <c r="C19">
-        <v>0.03279276414737889</v>
+        <v>-0.0280896542742047</v>
       </c>
       <c r="D19">
-        <v>0.1655635474852897</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1134851986964776</v>
+      </c>
+      <c r="E19">
+        <v>0.02386625180924733</v>
+      </c>
+      <c r="F19">
+        <v>-0.006615068243928711</v>
+      </c>
+      <c r="G19">
+        <v>0.05339912068380543</v>
+      </c>
+      <c r="H19">
+        <v>-0.05628267562762479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01049764985484037</v>
+        <v>-0.008987960753644202</v>
       </c>
       <c r="C20">
-        <v>0.03545479253084629</v>
+        <v>-0.04062964639534401</v>
       </c>
       <c r="D20">
-        <v>0.1063781808266324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1077252343104006</v>
+      </c>
+      <c r="E20">
+        <v>0.009223592874166135</v>
+      </c>
+      <c r="F20">
+        <v>-0.03095759763595042</v>
+      </c>
+      <c r="G20">
+        <v>0.05212519339682695</v>
+      </c>
+      <c r="H20">
+        <v>-0.04474134029729937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.009787508496550398</v>
+        <v>-0.005011648818970481</v>
       </c>
       <c r="C21">
-        <v>0.04104560191563237</v>
+        <v>-0.04735423276841593</v>
       </c>
       <c r="D21">
-        <v>0.1822411907064949</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1593994580100185</v>
+      </c>
+      <c r="E21">
+        <v>0.02496629508968387</v>
+      </c>
+      <c r="F21">
+        <v>-0.06480028733368332</v>
+      </c>
+      <c r="G21">
+        <v>0.0947939845616865</v>
+      </c>
+      <c r="H21">
+        <v>-0.1003289833902699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001032612196184978</v>
+        <v>-0.0002165465856055704</v>
       </c>
       <c r="C22">
-        <v>0.05127446519720635</v>
+        <v>-0.06096616525734721</v>
       </c>
       <c r="D22">
-        <v>0.1556923686812876</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2159971979321957</v>
+      </c>
+      <c r="E22">
+        <v>-0.04748437450999968</v>
+      </c>
+      <c r="F22">
+        <v>-0.02731309349085328</v>
+      </c>
+      <c r="G22">
+        <v>-0.01516381756560051</v>
+      </c>
+      <c r="H22">
+        <v>0.4815081316472739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001206610084950185</v>
+        <v>-0.0007346234674840395</v>
       </c>
       <c r="C23">
-        <v>0.051628711616812</v>
+        <v>-0.0613939838628531</v>
       </c>
       <c r="D23">
-        <v>0.155223027534506</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2162876859240163</v>
+      </c>
+      <c r="E23">
+        <v>-0.04511201914635838</v>
+      </c>
+      <c r="F23">
+        <v>-0.02594175537434151</v>
+      </c>
+      <c r="G23">
+        <v>-0.01680054011585249</v>
+      </c>
+      <c r="H23">
+        <v>0.4813713364823809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03242560009688611</v>
+        <v>-0.02036251173974682</v>
       </c>
       <c r="C24">
-        <v>0.05967175879861857</v>
+        <v>-0.0645778135892522</v>
       </c>
       <c r="D24">
-        <v>0.07263097926490343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05785541311355644</v>
+      </c>
+      <c r="E24">
+        <v>-0.01453927662205511</v>
+      </c>
+      <c r="F24">
+        <v>-0.001395064345046671</v>
+      </c>
+      <c r="G24">
+        <v>0.04466092791560326</v>
+      </c>
+      <c r="H24">
+        <v>-0.06290171018388577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03774647249224902</v>
+        <v>-0.02590650971193866</v>
       </c>
       <c r="C25">
-        <v>0.05227736337090014</v>
+        <v>-0.06150016914916598</v>
       </c>
       <c r="D25">
-        <v>0.07320234619323299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06086886659467947</v>
+      </c>
+      <c r="E25">
+        <v>-0.00607184147423937</v>
+      </c>
+      <c r="F25">
+        <v>0.006145245993125171</v>
+      </c>
+      <c r="G25">
+        <v>0.02400635284865124</v>
+      </c>
+      <c r="H25">
+        <v>-0.04169049501511669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01088358814305676</v>
+        <v>-0.009050048682192299</v>
       </c>
       <c r="C26">
-        <v>0.01486214900835803</v>
+        <v>-0.02340152135673269</v>
       </c>
       <c r="D26">
-        <v>0.07880514766476293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07142783867705178</v>
+      </c>
+      <c r="E26">
+        <v>-0.0104846608602096</v>
+      </c>
+      <c r="F26">
+        <v>-0.02603057661344491</v>
+      </c>
+      <c r="G26">
+        <v>0.04853372917542305</v>
+      </c>
+      <c r="H26">
+        <v>-0.04960379845040558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2117501227710317</v>
+        <v>-0.2806066032534013</v>
       </c>
       <c r="C28">
-        <v>-0.2360849441429415</v>
+        <v>0.1849311183533487</v>
       </c>
       <c r="D28">
-        <v>0.01137032228104651</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.004409485842616888</v>
+      </c>
+      <c r="E28">
+        <v>0.05367444518592547</v>
+      </c>
+      <c r="F28">
+        <v>-0.04471869481330318</v>
+      </c>
+      <c r="G28">
+        <v>-0.03886812206904482</v>
+      </c>
+      <c r="H28">
+        <v>0.02903091094901086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-7.464405810643675e-05</v>
+        <v>-0.001353533296661901</v>
       </c>
       <c r="C29">
-        <v>0.02395618920100347</v>
+        <v>-0.0278133359202888</v>
       </c>
       <c r="D29">
-        <v>0.1047782270681415</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.10574145093908</v>
+      </c>
+      <c r="E29">
+        <v>-0.02724864929732139</v>
+      </c>
+      <c r="F29">
+        <v>-0.03507268505914694</v>
+      </c>
+      <c r="G29">
+        <v>0.07027042303523563</v>
+      </c>
+      <c r="H29">
+        <v>-0.06866088330623218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02504287709914975</v>
+        <v>-0.0217380641635329</v>
       </c>
       <c r="C30">
-        <v>0.06517568426826281</v>
+        <v>-0.07865570784902537</v>
       </c>
       <c r="D30">
-        <v>0.1693915662656804</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1676326060652424</v>
+      </c>
+      <c r="E30">
+        <v>-0.02924945154129707</v>
+      </c>
+      <c r="F30">
+        <v>-0.04096370390055505</v>
+      </c>
+      <c r="G30">
+        <v>0.04382738447325984</v>
+      </c>
+      <c r="H30">
+        <v>-0.01941664495799393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04961020025838828</v>
+        <v>-0.02979520637160242</v>
       </c>
       <c r="C31">
-        <v>0.07863195429085727</v>
+        <v>-0.0862281643966781</v>
       </c>
       <c r="D31">
-        <v>0.07104302506900716</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04789505022233132</v>
+      </c>
+      <c r="E31">
+        <v>-0.004445832992882431</v>
+      </c>
+      <c r="F31">
+        <v>-0.02138855158087036</v>
+      </c>
+      <c r="G31">
+        <v>0.02066373344980694</v>
+      </c>
+      <c r="H31">
+        <v>-0.01546183653737846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02957714421354908</v>
+        <v>-0.02377659730639486</v>
       </c>
       <c r="C32">
-        <v>0.03269223384805852</v>
+        <v>-0.04074433355904681</v>
       </c>
       <c r="D32">
-        <v>0.1199248915470237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1272071370862617</v>
+      </c>
+      <c r="E32">
+        <v>0.006013984049648205</v>
+      </c>
+      <c r="F32">
+        <v>-0.04051057957778951</v>
+      </c>
+      <c r="G32">
+        <v>0.04184755469881558</v>
+      </c>
+      <c r="H32">
+        <v>-0.01597211623660973</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01978037419920088</v>
+        <v>-0.0162692570698525</v>
       </c>
       <c r="C33">
-        <v>0.04594085483012354</v>
+        <v>-0.0542635449801548</v>
       </c>
       <c r="D33">
-        <v>0.1607907218113745</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1405827268340142</v>
+      </c>
+      <c r="E33">
+        <v>-0.004994901870805917</v>
+      </c>
+      <c r="F33">
+        <v>-0.02801733990094631</v>
+      </c>
+      <c r="G33">
+        <v>0.04161029071302132</v>
+      </c>
+      <c r="H33">
+        <v>-0.04226627864460172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03323799960222981</v>
+        <v>-0.0198853927005412</v>
       </c>
       <c r="C34">
-        <v>0.06519119981903193</v>
+        <v>-0.06782313582029391</v>
       </c>
       <c r="D34">
-        <v>0.06535797640102438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04431587225334353</v>
+      </c>
+      <c r="E34">
+        <v>-0.02718736101044443</v>
+      </c>
+      <c r="F34">
+        <v>0.02653221443071713</v>
+      </c>
+      <c r="G34">
+        <v>0.04355575577716665</v>
+      </c>
+      <c r="H34">
+        <v>-0.05182430475430921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.00132877291954381</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002747286046563667</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01231816049713215</v>
+      </c>
+      <c r="E35">
+        <v>-0.00213674498858805</v>
+      </c>
+      <c r="F35">
+        <v>0.001088944151858435</v>
+      </c>
+      <c r="G35">
+        <v>0.001620597931430028</v>
+      </c>
+      <c r="H35">
+        <v>-0.004397460315044815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01641040801579459</v>
+        <v>-0.01570184786354169</v>
       </c>
       <c r="C36">
-        <v>0.007185251059127401</v>
+        <v>-0.01880209237177178</v>
       </c>
       <c r="D36">
-        <v>0.1002639445234685</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08693799831944607</v>
+      </c>
+      <c r="E36">
+        <v>-0.001833980704918402</v>
+      </c>
+      <c r="F36">
+        <v>-0.0282541183468697</v>
+      </c>
+      <c r="G36">
+        <v>0.03274810369666469</v>
+      </c>
+      <c r="H36">
+        <v>-0.04677712174563937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01612576360935788</v>
+        <v>-0.02073162645365883</v>
       </c>
       <c r="C38">
-        <v>0.01624191607762245</v>
+        <v>-0.02168222603977238</v>
       </c>
       <c r="D38">
-        <v>0.0909986025940642</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0859569200355164</v>
+      </c>
+      <c r="E38">
+        <v>0.01427563762870985</v>
+      </c>
+      <c r="F38">
+        <v>0.02004884436867001</v>
+      </c>
+      <c r="G38">
+        <v>0.04021682825162126</v>
+      </c>
+      <c r="H38">
+        <v>-0.03099424050083873</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03367488665440103</v>
+        <v>-0.02208934110530279</v>
       </c>
       <c r="C39">
-        <v>0.06049229136746358</v>
+        <v>-0.07612613570573187</v>
       </c>
       <c r="D39">
-        <v>0.1131568927515173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1077240365285132</v>
+      </c>
+      <c r="E39">
+        <v>-0.03917807117689982</v>
+      </c>
+      <c r="F39">
+        <v>0.00601464013770814</v>
+      </c>
+      <c r="G39">
+        <v>0.05242135119534457</v>
+      </c>
+      <c r="H39">
+        <v>-0.08214481612501499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01565437514269786</v>
+        <v>-0.008909196631963542</v>
       </c>
       <c r="C40">
-        <v>0.04629351791814537</v>
+        <v>-0.04363397549319011</v>
       </c>
       <c r="D40">
-        <v>0.1227179394499928</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.1052957621889982</v>
+      </c>
+      <c r="E40">
+        <v>-0.004895785157765262</v>
+      </c>
+      <c r="F40">
+        <v>-0.03802517236484419</v>
+      </c>
+      <c r="G40">
+        <v>0.2307120157360186</v>
+      </c>
+      <c r="H40">
+        <v>0.06619203059933752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02935020522208782</v>
+        <v>-0.02584445334233798</v>
       </c>
       <c r="C41">
-        <v>0.008831734058317615</v>
+        <v>-0.01867443245940864</v>
       </c>
       <c r="D41">
-        <v>0.08977127550451339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.06118124731058026</v>
+      </c>
+      <c r="E41">
+        <v>0.0174342479606173</v>
+      </c>
+      <c r="F41">
+        <v>-0.006043468034260295</v>
+      </c>
+      <c r="G41">
+        <v>0.03493611833025456</v>
+      </c>
+      <c r="H41">
+        <v>-0.02224226142368814</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02406296968573341</v>
+        <v>-0.01910916835585637</v>
       </c>
       <c r="C43">
-        <v>0.01697239187340703</v>
+        <v>-0.02388440362843152</v>
       </c>
       <c r="D43">
-        <v>0.1098308858174099</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.07796527544562241</v>
+      </c>
+      <c r="E43">
+        <v>0.005185576809573146</v>
+      </c>
+      <c r="F43">
+        <v>-0.005166916037972094</v>
+      </c>
+      <c r="G43">
+        <v>0.05147369712429147</v>
+      </c>
+      <c r="H43">
+        <v>-0.04725954382701593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00562041634145505</v>
+        <v>-0.007017899653610698</v>
       </c>
       <c r="C44">
-        <v>0.04272051237687629</v>
+        <v>-0.04383043999440056</v>
       </c>
       <c r="D44">
-        <v>0.1072642084144164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1166478111140168</v>
+      </c>
+      <c r="E44">
+        <v>0.004084842402674532</v>
+      </c>
+      <c r="F44">
+        <v>-0.02588097092668449</v>
+      </c>
+      <c r="G44">
+        <v>0.04711756135971211</v>
+      </c>
+      <c r="H44">
+        <v>-0.03485451344294732</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01202880541696538</v>
+        <v>-0.006630422871402327</v>
       </c>
       <c r="C46">
-        <v>0.02791641665429687</v>
+        <v>-0.0346995477382031</v>
       </c>
       <c r="D46">
-        <v>0.1110695429651678</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09773057590473509</v>
+      </c>
+      <c r="E46">
+        <v>-0.01332520061414976</v>
+      </c>
+      <c r="F46">
+        <v>-0.02506494401772174</v>
+      </c>
+      <c r="G46">
+        <v>0.06804652171970235</v>
+      </c>
+      <c r="H46">
+        <v>-0.08115093219336784</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0892464091577653</v>
+        <v>-0.06060109758720379</v>
       </c>
       <c r="C47">
-        <v>0.0940742841411895</v>
+        <v>-0.1116380600863257</v>
       </c>
       <c r="D47">
-        <v>0.05241642546215262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03192948402889144</v>
+      </c>
+      <c r="E47">
+        <v>0.01172435498310647</v>
+      </c>
+      <c r="F47">
+        <v>0.0002249330418662464</v>
+      </c>
+      <c r="G47">
+        <v>-0.02740904194687606</v>
+      </c>
+      <c r="H47">
+        <v>-0.02653230868382494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009982837890606248</v>
+        <v>-0.009407451126058045</v>
       </c>
       <c r="C48">
-        <v>0.02002393377522609</v>
+        <v>-0.02673399449665774</v>
       </c>
       <c r="D48">
-        <v>0.100450057016828</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.09149781963282477</v>
+      </c>
+      <c r="E48">
+        <v>0.01841675643264779</v>
+      </c>
+      <c r="F48">
+        <v>-0.03322114361252052</v>
+      </c>
+      <c r="G48">
+        <v>0.04989428712285217</v>
+      </c>
+      <c r="H48">
+        <v>-0.05694597725784414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04613858003831607</v>
+        <v>-0.02940835558551304</v>
       </c>
       <c r="C50">
-        <v>0.06273514788994965</v>
+        <v>-0.07320997530819338</v>
       </c>
       <c r="D50">
-        <v>0.0778243017901573</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.06040937875318605</v>
+      </c>
+      <c r="E50">
+        <v>0.000666125272137335</v>
+      </c>
+      <c r="F50">
+        <v>-0.01061144803105563</v>
+      </c>
+      <c r="G50">
+        <v>0.02922355366556779</v>
+      </c>
+      <c r="H50">
+        <v>0.004760739284293135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.008017761145237291</v>
+        <v>-0.006264216637679955</v>
       </c>
       <c r="C51">
-        <v>0.01471491740396274</v>
+        <v>-0.0212764053275626</v>
       </c>
       <c r="D51">
-        <v>0.07797062485908701</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08174348262144898</v>
+      </c>
+      <c r="E51">
+        <v>-0.02380263924483482</v>
+      </c>
+      <c r="F51">
+        <v>-0.03747990147892602</v>
+      </c>
+      <c r="G51">
+        <v>0.07116586525140373</v>
+      </c>
+      <c r="H51">
+        <v>-0.02985830361102571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1028834680819651</v>
+        <v>-0.07767339307116494</v>
       </c>
       <c r="C53">
-        <v>0.1170398502056937</v>
+        <v>-0.1386002278460485</v>
       </c>
       <c r="D53">
-        <v>0.01600190730046139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006279363266848464</v>
+      </c>
+      <c r="E53">
+        <v>0.0580872914374143</v>
+      </c>
+      <c r="F53">
+        <v>-0.07228620917654439</v>
+      </c>
+      <c r="G53">
+        <v>0.01980047122079213</v>
+      </c>
+      <c r="H53">
+        <v>0.01938817058773324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01603928274648046</v>
+        <v>-0.01270374708209084</v>
       </c>
       <c r="C54">
-        <v>0.0281694862895659</v>
+        <v>-0.03662295632499989</v>
       </c>
       <c r="D54">
-        <v>0.1230194356326364</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.1009108795681758</v>
+      </c>
+      <c r="E54">
+        <v>-0.002088208268405925</v>
+      </c>
+      <c r="F54">
+        <v>-0.007856521171565866</v>
+      </c>
+      <c r="G54">
+        <v>0.07913299136278389</v>
+      </c>
+      <c r="H54">
+        <v>-0.04226569812444411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09202979393583451</v>
+        <v>-0.06705159639076934</v>
       </c>
       <c r="C55">
-        <v>0.08982370669972005</v>
+        <v>-0.1097753215647646</v>
       </c>
       <c r="D55">
-        <v>-0.001667966923176726</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01023686392801355</v>
+      </c>
+      <c r="E55">
+        <v>0.01447426880619351</v>
+      </c>
+      <c r="F55">
+        <v>-0.04175663766652999</v>
+      </c>
+      <c r="G55">
+        <v>0.02016546269292222</v>
+      </c>
+      <c r="H55">
+        <v>0.03846457301094683</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1304423461861096</v>
+        <v>-0.09487220799035503</v>
       </c>
       <c r="C56">
-        <v>0.1235409417140228</v>
+        <v>-0.1602689246727493</v>
       </c>
       <c r="D56">
-        <v>-0.005117959311606933</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01386757151351854</v>
+      </c>
+      <c r="E56">
+        <v>0.04390616181858151</v>
+      </c>
+      <c r="F56">
+        <v>-0.03444096640635879</v>
+      </c>
+      <c r="G56">
+        <v>0.02078803280139445</v>
+      </c>
+      <c r="H56">
+        <v>0.06019999646291524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01481322910634283</v>
+        <v>0.005336967055043256</v>
       </c>
       <c r="C58">
-        <v>0.03735945937694733</v>
+        <v>-0.0506824131197599</v>
       </c>
       <c r="D58">
-        <v>0.223297633253902</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2842680592756447</v>
+      </c>
+      <c r="E58">
+        <v>0.03964824838375401</v>
+      </c>
+      <c r="F58">
+        <v>-0.07984734150264552</v>
+      </c>
+      <c r="G58">
+        <v>0.01273563783531251</v>
+      </c>
+      <c r="H58">
+        <v>0.1650430058736522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1586277104357485</v>
+        <v>-0.2137976788198498</v>
       </c>
       <c r="C59">
-        <v>-0.1610777482168738</v>
+        <v>0.1220444251527723</v>
       </c>
       <c r="D59">
-        <v>0.05508112176185588</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06587460908674064</v>
+      </c>
+      <c r="E59">
+        <v>0.03853518007007657</v>
+      </c>
+      <c r="F59">
+        <v>-0.006678913337367747</v>
+      </c>
+      <c r="G59">
+        <v>-0.008490925978882343</v>
+      </c>
+      <c r="H59">
+        <v>0.01528766159942715</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2315970579387048</v>
+        <v>-0.1966357481114012</v>
       </c>
       <c r="C60">
-        <v>0.08982940379754392</v>
+        <v>-0.1493342229136627</v>
       </c>
       <c r="D60">
-        <v>0.1139197908596811</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.06011055444730833</v>
+      </c>
+      <c r="E60">
+        <v>-0.3018239435119249</v>
+      </c>
+      <c r="F60">
+        <v>0.1570408256008432</v>
+      </c>
+      <c r="G60">
+        <v>-0.2799327278090934</v>
+      </c>
+      <c r="H60">
+        <v>0.03337793543725639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03799355844079002</v>
+        <v>-0.02548636030863044</v>
       </c>
       <c r="C61">
-        <v>0.05768580751057455</v>
+        <v>-0.07040736929868999</v>
       </c>
       <c r="D61">
-        <v>0.1123917251985936</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09012704625584053</v>
+      </c>
+      <c r="E61">
+        <v>-0.02750419757036123</v>
+      </c>
+      <c r="F61">
+        <v>0.008905773768940259</v>
+      </c>
+      <c r="G61">
+        <v>0.03664494339656191</v>
+      </c>
+      <c r="H61">
+        <v>-0.0821694705957052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01179191333204322</v>
+        <v>-0.008744063667355927</v>
       </c>
       <c r="C63">
-        <v>0.02600612488295049</v>
+        <v>-0.03419309953465213</v>
       </c>
       <c r="D63">
-        <v>0.09452807042137083</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07849195833609149</v>
+      </c>
+      <c r="E63">
+        <v>-0.01893624947609232</v>
+      </c>
+      <c r="F63">
+        <v>-0.02385051496944982</v>
+      </c>
+      <c r="G63">
+        <v>0.04037039184432596</v>
+      </c>
+      <c r="H63">
+        <v>-0.03899258298569266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05061326799752548</v>
+        <v>-0.03106216229857663</v>
       </c>
       <c r="C64">
-        <v>0.07661434424053269</v>
+        <v>-0.08754785152086672</v>
       </c>
       <c r="D64">
-        <v>0.0567901545615699</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05138516606120117</v>
+      </c>
+      <c r="E64">
+        <v>-0.01076053536453091</v>
+      </c>
+      <c r="F64">
+        <v>-0.05117201885328873</v>
+      </c>
+      <c r="G64">
+        <v>0.01391895112563172</v>
+      </c>
+      <c r="H64">
+        <v>-0.1126573299751853</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02843883831132127</v>
+        <v>-0.02240131646315087</v>
       </c>
       <c r="C65">
-        <v>0.02309384733037027</v>
+        <v>-0.03810543973023406</v>
       </c>
       <c r="D65">
-        <v>0.1248090588910692</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1091678719491772</v>
+      </c>
+      <c r="E65">
+        <v>-0.03645443430925498</v>
+      </c>
+      <c r="F65">
+        <v>-0.02108853107908787</v>
+      </c>
+      <c r="G65">
+        <v>0.0204623439951581</v>
+      </c>
+      <c r="H65">
+        <v>-0.002856331250010921</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03390152468034053</v>
+        <v>-0.02157726850559009</v>
       </c>
       <c r="C66">
-        <v>0.06806285328554453</v>
+        <v>-0.08728421061811839</v>
       </c>
       <c r="D66">
-        <v>0.1249713237173621</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1340532763805231</v>
+      </c>
+      <c r="E66">
+        <v>-0.03360786805811081</v>
+      </c>
+      <c r="F66">
+        <v>0.01386018649982303</v>
+      </c>
+      <c r="G66">
+        <v>0.02914784325986074</v>
+      </c>
+      <c r="H66">
+        <v>-0.04719104090653351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03785614367760384</v>
+        <v>-0.03564346530982596</v>
       </c>
       <c r="C67">
-        <v>0.02388742692844032</v>
+        <v>-0.0324611654583159</v>
       </c>
       <c r="D67">
-        <v>0.04665727470313474</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03568167957004798</v>
+      </c>
+      <c r="E67">
+        <v>-0.0004419015684391518</v>
+      </c>
+      <c r="F67">
+        <v>0.03375505506447525</v>
+      </c>
+      <c r="G67">
+        <v>0.04228908316511949</v>
+      </c>
+      <c r="H67">
+        <v>-0.04409323532931894</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.195821920974578</v>
+        <v>-0.2457822166440096</v>
       </c>
       <c r="C68">
-        <v>-0.1874609967872607</v>
+        <v>0.134257942791563</v>
       </c>
       <c r="D68">
-        <v>0.02414400600945231</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02916534006789547</v>
+      </c>
+      <c r="E68">
+        <v>0.005265464379445523</v>
+      </c>
+      <c r="F68">
+        <v>-0.03019125320330524</v>
+      </c>
+      <c r="G68">
+        <v>0.02341921270552507</v>
+      </c>
+      <c r="H68">
+        <v>0.06300691571875662</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07689485335683381</v>
+        <v>-0.05010879505805754</v>
       </c>
       <c r="C69">
-        <v>0.1058485668449205</v>
+        <v>-0.1128955885308338</v>
       </c>
       <c r="D69">
-        <v>0.07803775009070817</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04211624283007596</v>
+      </c>
+      <c r="E69">
+        <v>-0.009267239751091821</v>
+      </c>
+      <c r="F69">
+        <v>0.003685218958969777</v>
+      </c>
+      <c r="G69">
+        <v>-0.01138989803815961</v>
+      </c>
+      <c r="H69">
+        <v>-0.02147806596612373</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1880160269867521</v>
+        <v>-0.2389904803187471</v>
       </c>
       <c r="C71">
-        <v>-0.1950401632770236</v>
+        <v>0.1448032552182067</v>
       </c>
       <c r="D71">
-        <v>0.03465408406612434</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03197950861924025</v>
+      </c>
+      <c r="E71">
+        <v>0.0186552827957932</v>
+      </c>
+      <c r="F71">
+        <v>-0.04010731885620303</v>
+      </c>
+      <c r="G71">
+        <v>0.05077504109336997</v>
+      </c>
+      <c r="H71">
+        <v>0.03784360216399351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1071106183385629</v>
+        <v>-0.08027088454681026</v>
       </c>
       <c r="C72">
-        <v>0.06857850140657433</v>
+        <v>-0.1065110487611896</v>
       </c>
       <c r="D72">
-        <v>0.08166930626386223</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07236358662689975</v>
+      </c>
+      <c r="E72">
+        <v>-0.07968655730832833</v>
+      </c>
+      <c r="F72">
+        <v>-0.01291117107392193</v>
+      </c>
+      <c r="G72">
+        <v>0.02381002277277478</v>
+      </c>
+      <c r="H72">
+        <v>-0.04255432730428882</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2014942237915401</v>
+        <v>-0.1711078764970477</v>
       </c>
       <c r="C73">
-        <v>0.04085634960974264</v>
+        <v>-0.1114582128418346</v>
       </c>
       <c r="D73">
-        <v>0.1401116542744685</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.04605669169757579</v>
+      </c>
+      <c r="E73">
+        <v>-0.4874054540254485</v>
+      </c>
+      <c r="F73">
+        <v>0.2101390059039917</v>
+      </c>
+      <c r="G73">
+        <v>-0.3684858017599369</v>
+      </c>
+      <c r="H73">
+        <v>-0.09527858671282734</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.105837833892214</v>
+        <v>-0.07509689690830933</v>
       </c>
       <c r="C74">
-        <v>0.09681487407531961</v>
+        <v>-0.1216878556278381</v>
       </c>
       <c r="D74">
-        <v>-0.02492428922705887</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03198536982295589</v>
+      </c>
+      <c r="E74">
+        <v>0.03186155913987617</v>
+      </c>
+      <c r="F74">
+        <v>-0.06402629272027993</v>
+      </c>
+      <c r="G74">
+        <v>-0.01351678079452856</v>
+      </c>
+      <c r="H74">
+        <v>0.03073996697397277</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2542353367087281</v>
+        <v>-0.1890276549520614</v>
       </c>
       <c r="C75">
-        <v>0.1750383438531874</v>
+        <v>-0.2335643316453788</v>
       </c>
       <c r="D75">
-        <v>-0.09577464916956893</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1200329398376247</v>
+      </c>
+      <c r="E75">
+        <v>0.09409983486352026</v>
+      </c>
+      <c r="F75">
+        <v>0.01345776202832068</v>
+      </c>
+      <c r="G75">
+        <v>0.04517955663990398</v>
+      </c>
+      <c r="H75">
+        <v>0.04384957945825009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1395751631485339</v>
+        <v>-0.09961415925226985</v>
       </c>
       <c r="C76">
-        <v>0.1284819922008469</v>
+        <v>-0.1585241336849974</v>
       </c>
       <c r="D76">
-        <v>0.005165791354356586</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01584480322811239</v>
+      </c>
+      <c r="E76">
+        <v>0.04860589623405789</v>
+      </c>
+      <c r="F76">
+        <v>-0.02977726648714196</v>
+      </c>
+      <c r="G76">
+        <v>0.05212165778058844</v>
+      </c>
+      <c r="H76">
+        <v>0.01691804575702132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.03802718372232715</v>
+        <v>-0.04436777034174653</v>
       </c>
       <c r="C77">
-        <v>0.07605619483551891</v>
+        <v>-0.08309996219551179</v>
       </c>
       <c r="D77">
-        <v>0.07539862205657112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.2216016477949942</v>
+      </c>
+      <c r="E77">
+        <v>0.6348124072746003</v>
+      </c>
+      <c r="F77">
+        <v>0.4676547513385457</v>
+      </c>
+      <c r="G77">
+        <v>-0.4161199831460211</v>
+      </c>
+      <c r="H77">
+        <v>0.1277937262965503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03468417619762383</v>
+        <v>-0.0297441714614087</v>
       </c>
       <c r="C78">
-        <v>0.06547998208481018</v>
+        <v>-0.0777722552813991</v>
       </c>
       <c r="D78">
-        <v>0.1543508615604859</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1441022105411583</v>
+      </c>
+      <c r="E78">
+        <v>-0.04011973415294188</v>
+      </c>
+      <c r="F78">
+        <v>-0.03560581834630665</v>
+      </c>
+      <c r="G78">
+        <v>-0.002978089450462316</v>
+      </c>
+      <c r="H78">
+        <v>-0.02548867380178994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0631922979922154</v>
+        <v>-0.04799733986558901</v>
       </c>
       <c r="C79">
-        <v>0.1181219124465385</v>
+        <v>-0.1329356531186561</v>
       </c>
       <c r="D79">
-        <v>-0.1128513121082631</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0437375677854684</v>
+      </c>
+      <c r="E79">
+        <v>0.1936597666194259</v>
+      </c>
+      <c r="F79">
+        <v>-0.726597710452664</v>
+      </c>
+      <c r="G79">
+        <v>-0.5167843164796362</v>
+      </c>
+      <c r="H79">
+        <v>-0.1221153616753778</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.01501480779904048</v>
+        <v>-0.01060880855706785</v>
       </c>
       <c r="C80">
-        <v>0.04832181917774825</v>
+        <v>-0.04951055454877915</v>
       </c>
       <c r="D80">
-        <v>0.03475789861043881</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03509562775909083</v>
+      </c>
+      <c r="E80">
+        <v>-0.008718996391988955</v>
+      </c>
+      <c r="F80">
+        <v>-0.02201339738016478</v>
+      </c>
+      <c r="G80">
+        <v>0.06435027554088855</v>
+      </c>
+      <c r="H80">
+        <v>0.02025262219246606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.126514755808909</v>
+        <v>-0.08569490457376309</v>
       </c>
       <c r="C81">
-        <v>0.1308176610844471</v>
+        <v>-0.1531600544132165</v>
       </c>
       <c r="D81">
-        <v>-0.07432112479301385</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07980888812818066</v>
+      </c>
+      <c r="E81">
+        <v>0.08941475988112131</v>
+      </c>
+      <c r="F81">
+        <v>-0.05797120009970095</v>
+      </c>
+      <c r="G81">
+        <v>0.07637717362295296</v>
+      </c>
+      <c r="H81">
+        <v>-0.001951067806106585</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2544284264390084</v>
+        <v>-0.1669143434801309</v>
       </c>
       <c r="C82">
-        <v>0.2654318561545249</v>
+        <v>-0.29302461137318</v>
       </c>
       <c r="D82">
-        <v>-0.2364487961437853</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2297684161746801</v>
+      </c>
+      <c r="E82">
+        <v>0.04830252478168705</v>
+      </c>
+      <c r="F82">
+        <v>0.0766386772151417</v>
+      </c>
+      <c r="G82">
+        <v>0.08279321432736841</v>
+      </c>
+      <c r="H82">
+        <v>-0.004742156475332058</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02234195037289398</v>
+        <v>-0.008505641420202825</v>
       </c>
       <c r="C83">
-        <v>0.06157595912347253</v>
+        <v>-0.05833563198670996</v>
       </c>
       <c r="D83">
-        <v>0.03822739587574392</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04944023250029655</v>
+      </c>
+      <c r="E83">
+        <v>0.07768904194819573</v>
+      </c>
+      <c r="F83">
+        <v>0.05214680539474961</v>
+      </c>
+      <c r="G83">
+        <v>0.01003796002170603</v>
+      </c>
+      <c r="H83">
+        <v>-0.02040248132918988</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0005017709046960298</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.009202709608592751</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0291846552068758</v>
+      </c>
+      <c r="E84">
+        <v>0.00579561750767659</v>
+      </c>
+      <c r="F84">
+        <v>-0.01901664606125299</v>
+      </c>
+      <c r="G84">
+        <v>0.02806582708796594</v>
+      </c>
+      <c r="H84">
+        <v>0.02322874714988769</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1604389330504526</v>
+        <v>-0.112299957738267</v>
       </c>
       <c r="C85">
-        <v>0.1326054210509224</v>
+        <v>-0.1766592530026405</v>
       </c>
       <c r="D85">
-        <v>-0.06023879884287563</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08845078936512923</v>
+      </c>
+      <c r="E85">
+        <v>0.01694477644668896</v>
+      </c>
+      <c r="F85">
+        <v>-0.08907355600157718</v>
+      </c>
+      <c r="G85">
+        <v>0.01457890456293384</v>
+      </c>
+      <c r="H85">
+        <v>0.02027982698321622</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01260540136660366</v>
+        <v>-0.01249124446261075</v>
       </c>
       <c r="C86">
-        <v>0.02919188216502665</v>
+        <v>-0.02962656642558033</v>
       </c>
       <c r="D86">
-        <v>0.09946932957664643</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1099578803936294</v>
+      </c>
+      <c r="E86">
+        <v>0.04428590329359113</v>
+      </c>
+      <c r="F86">
+        <v>0.01795796042489864</v>
+      </c>
+      <c r="G86">
+        <v>0.02082465176683415</v>
+      </c>
+      <c r="H86">
+        <v>0.000831030588231899</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02641561635452616</v>
+        <v>-0.02667875507776559</v>
       </c>
       <c r="C87">
-        <v>0.02735149972541439</v>
+        <v>-0.04358374413117235</v>
       </c>
       <c r="D87">
-        <v>0.1342804391545808</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1494843631356063</v>
+      </c>
+      <c r="E87">
+        <v>0.01603358602056777</v>
+      </c>
+      <c r="F87">
+        <v>-0.03129663801562584</v>
+      </c>
+      <c r="G87">
+        <v>0.05202621460355795</v>
+      </c>
+      <c r="H87">
+        <v>-0.0009501696252170669</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.06624596061319107</v>
+        <v>-0.0489603531772881</v>
       </c>
       <c r="C88">
-        <v>0.05171367290858036</v>
+        <v>-0.06802561475580421</v>
       </c>
       <c r="D88">
-        <v>0.05000113311276139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01902351798729979</v>
+      </c>
+      <c r="E88">
+        <v>-0.01386699722081676</v>
+      </c>
+      <c r="F88">
+        <v>-0.02821381880355672</v>
+      </c>
+      <c r="G88">
+        <v>0.01054195939943422</v>
+      </c>
+      <c r="H88">
+        <v>-0.02558899232855345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.293995330126132</v>
+        <v>-0.3676010155153867</v>
       </c>
       <c r="C89">
-        <v>-0.3582459169466225</v>
+        <v>0.2579653461374706</v>
       </c>
       <c r="D89">
-        <v>0.01662409303811208</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02071955542505041</v>
+      </c>
+      <c r="E89">
+        <v>0.04080952600297753</v>
+      </c>
+      <c r="F89">
+        <v>-0.0219536924088162</v>
+      </c>
+      <c r="G89">
+        <v>0.07882658285199758</v>
+      </c>
+      <c r="H89">
+        <v>-0.1266213526044319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2366723920577754</v>
+        <v>-0.2887058516413815</v>
       </c>
       <c r="C90">
-        <v>-0.2605741906034463</v>
+        <v>0.1793748595936982</v>
       </c>
       <c r="D90">
-        <v>0.03870318581415948</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0425524049881491</v>
+      </c>
+      <c r="E90">
+        <v>0.01101388030124112</v>
+      </c>
+      <c r="F90">
+        <v>0.009859861990771997</v>
+      </c>
+      <c r="G90">
+        <v>0.04515898712817198</v>
+      </c>
+      <c r="H90">
+        <v>0.05327617327506321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1645188326045747</v>
+        <v>-0.1140114161716661</v>
       </c>
       <c r="C91">
-        <v>0.1770737847148132</v>
+        <v>-0.1980446962821255</v>
       </c>
       <c r="D91">
-        <v>-0.08831717072158107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.09407089539160553</v>
+      </c>
+      <c r="E91">
+        <v>0.09456002453483527</v>
+      </c>
+      <c r="F91">
+        <v>-0.08403531469447968</v>
+      </c>
+      <c r="G91">
+        <v>0.00959597544649976</v>
+      </c>
+      <c r="H91">
+        <v>0.01100852819681476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2069600300023775</v>
+        <v>-0.2848929477820242</v>
       </c>
       <c r="C92">
-        <v>-0.2572829109439865</v>
+        <v>0.2049233969538981</v>
       </c>
       <c r="D92">
-        <v>0.02211698188138004</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03773646062863952</v>
+      </c>
+      <c r="E92">
+        <v>0.1108010073051638</v>
+      </c>
+      <c r="F92">
+        <v>-0.04398444332910287</v>
+      </c>
+      <c r="G92">
+        <v>0.09254289954977415</v>
+      </c>
+      <c r="H92">
+        <v>-0.009999446246785086</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2602248601305573</v>
+        <v>-0.3088137071389752</v>
       </c>
       <c r="C93">
-        <v>-0.2809078834883967</v>
+        <v>0.1931034650354433</v>
       </c>
       <c r="D93">
-        <v>0.02773336357112081</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.002580465363291543</v>
+      </c>
+      <c r="E93">
+        <v>-0.03202582933922601</v>
+      </c>
+      <c r="F93">
+        <v>-0.02706213001787943</v>
+      </c>
+      <c r="G93">
+        <v>-0.02940349172220618</v>
+      </c>
+      <c r="H93">
+        <v>0.004701806315426758</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3312602535629014</v>
+        <v>-0.240268920665607</v>
       </c>
       <c r="C94">
-        <v>0.2392262094657239</v>
+        <v>-0.3206022315824945</v>
       </c>
       <c r="D94">
-        <v>-0.3621268819523499</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3623539814323093</v>
+      </c>
+      <c r="E94">
+        <v>0.05394333676372434</v>
+      </c>
+      <c r="F94">
+        <v>0.09654086262148814</v>
+      </c>
+      <c r="G94">
+        <v>0.2571582726276285</v>
+      </c>
+      <c r="H94">
+        <v>0.1667519929929496</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05653543250415273</v>
+        <v>-0.04910351421433779</v>
       </c>
       <c r="C95">
-        <v>0.04314717295508243</v>
+        <v>-0.06410941129475732</v>
       </c>
       <c r="D95">
-        <v>0.09830424057220881</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1014476786598337</v>
+      </c>
+      <c r="E95">
+        <v>0.1878926582017855</v>
+      </c>
+      <c r="F95">
+        <v>0.22938661343185</v>
+      </c>
+      <c r="G95">
+        <v>-0.002799919832866201</v>
+      </c>
+      <c r="H95">
+        <v>-0.5282490247049322</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-5.489554133668653e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>6.005828888018017e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0004889964027884005</v>
+      </c>
+      <c r="E97">
+        <v>-8.694733856263557e-05</v>
+      </c>
+      <c r="F97">
+        <v>0.000534566229479912</v>
+      </c>
+      <c r="G97">
+        <v>-6.835590167374679e-05</v>
+      </c>
+      <c r="H97">
+        <v>-0.0005705187581148237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1689716627474346</v>
+        <v>-0.1463238063493068</v>
       </c>
       <c r="C98">
-        <v>0.06035250844211128</v>
+        <v>-0.1132814883283516</v>
       </c>
       <c r="D98">
-        <v>0.09117782267040256</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04679861055127139</v>
+      </c>
+      <c r="E98">
+        <v>-0.302502356166985</v>
+      </c>
+      <c r="F98">
+        <v>0.1213156269028184</v>
+      </c>
+      <c r="G98">
+        <v>-0.2100150901327896</v>
+      </c>
+      <c r="H98">
+        <v>-0.02330332035823071</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.000255105329689896</v>
+        <v>-0.001653333316244145</v>
       </c>
       <c r="C101">
-        <v>0.0234902605693434</v>
+        <v>-0.02726058458939262</v>
       </c>
       <c r="D101">
-        <v>0.1051910979885335</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1055111821690464</v>
+      </c>
+      <c r="E101">
+        <v>-0.02637678761019814</v>
+      </c>
+      <c r="F101">
+        <v>-0.03526379299731972</v>
+      </c>
+      <c r="G101">
+        <v>0.07104370755346574</v>
+      </c>
+      <c r="H101">
+        <v>-0.06980571259383207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1169235279289922</v>
+        <v>-0.0724616212326165</v>
       </c>
       <c r="C102">
-        <v>0.1391822057268602</v>
+        <v>-0.1443531804307435</v>
       </c>
       <c r="D102">
-        <v>-0.07821530179503956</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.08819860413531043</v>
+      </c>
+      <c r="E102">
+        <v>0.03667668485341904</v>
+      </c>
+      <c r="F102">
+        <v>0.05086647255543201</v>
+      </c>
+      <c r="G102">
+        <v>0.02187396292852845</v>
+      </c>
+      <c r="H102">
+        <v>-0.04599664465818602</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
